--- a/KR_obtained_revnoop.xlsx
+++ b/KR_obtained_revnoop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\codes\dnnCossEuler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74B2B26-B191-4F0A-A56C-D636393F2E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805331FE-3675-4592-892A-80A8493893DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10455" yWindow="4065" windowWidth="24510" windowHeight="15630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="std_ess" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>TDL</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>corr</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>ci</t>
   </si>
 </sst>
 </file>
@@ -10024,10 +10030,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF63F25-76AF-4268-B5CC-8A50A603FB4E}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10806,7 +10812,7 @@
         <v>1.5012369259941343</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>90</v>
       </c>
@@ -10815,7 +10821,7 @@
         <v>1.8223163021951325</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H35">
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
@@ -10824,7 +10830,7 @@
         <v>1.1864851503797067</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H36">
         <v>0</v>
       </c>
@@ -10832,13 +10838,64 @@
         <v>1.5012369259941343</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H37">
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="I37">
         <v>1.8223163021951325</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39">
+        <f>AVERAGE(H2:H26)</f>
+        <v>1.8223163021951325</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:J39" si="2">AVERAGE(I2:I26)</f>
+        <v>1.1864851503797067</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>1.5012369259941343</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <f>_xlfn.STDEV.S(H2:H26)</f>
+        <v>0.15385055801771449</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:J40" si="3">_xlfn.STDEV.S(I2:I26)</f>
+        <v>0.17307395868444539</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0.16337305539838035</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41">
+        <f>_xlfn.CONFIDENCE.T(0.05,H40,COUNT(H2:H26))</f>
+        <v>6.3506389079686004E-2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:J41" si="4">_xlfn.CONFIDENCE.T(0.05,I40,COUNT(I2:I26))</f>
+        <v>7.1441418876819027E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>6.7437082809098589E-2</v>
       </c>
     </row>
   </sheetData>
